--- a/temp/pages/StructureDefinition-MyPatient.xlsx
+++ b/temp/pages/StructureDefinition-MyPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T12:31:33+01:00</t>
+    <t>2023-01-12T11:08:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-MyPatient.xlsx
+++ b/temp/pages/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T11:08:34+01:00</t>
+    <t>2023-01-12T14:43:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
